--- a/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024745279906034</v>
+        <v>1.047214761059907</v>
       </c>
       <c r="D2">
-        <v>1.039341246685119</v>
+        <v>1.059137885000845</v>
       </c>
       <c r="E2">
-        <v>1.034249656808779</v>
+        <v>1.05394972152032</v>
       </c>
       <c r="F2">
-        <v>1.042111491859532</v>
+        <v>1.062253829611095</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05815374569373</v>
+        <v>1.072058502179942</v>
       </c>
       <c r="J2">
-        <v>1.046210240321599</v>
+        <v>1.068069496457664</v>
       </c>
       <c r="K2">
-        <v>1.050278409816465</v>
+        <v>1.069830520187078</v>
       </c>
       <c r="L2">
-        <v>1.045251602086471</v>
+        <v>1.064705336492973</v>
       </c>
       <c r="M2">
-        <v>1.053013739820239</v>
+        <v>1.072909006783961</v>
       </c>
       <c r="N2">
-        <v>1.047695978864847</v>
+        <v>1.069586277651918</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03319110656694</v>
+        <v>1.054275984591216</v>
       </c>
       <c r="D3">
-        <v>1.045987127803063</v>
+        <v>1.0648142102744</v>
       </c>
       <c r="E3">
-        <v>1.041760749643453</v>
+        <v>1.060281468062441</v>
       </c>
       <c r="F3">
-        <v>1.049987487939521</v>
+        <v>1.068979157381343</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061502123222352</v>
+        <v>1.075294191814695</v>
       </c>
       <c r="J3">
-        <v>1.052816100487969</v>
+        <v>1.073388960275509</v>
       </c>
       <c r="K3">
-        <v>1.056063557842937</v>
+        <v>1.074679878084747</v>
       </c>
       <c r="L3">
-        <v>1.051885785465132</v>
+        <v>1.070197037068234</v>
       </c>
       <c r="M3">
-        <v>1.06001835597946</v>
+        <v>1.078799430808503</v>
       </c>
       <c r="N3">
-        <v>1.054311220110356</v>
+        <v>1.074913295718535</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038472500938966</v>
+        <v>1.058712334403601</v>
       </c>
       <c r="D4">
-        <v>1.050144837434869</v>
+        <v>1.068382278222657</v>
       </c>
       <c r="E4">
-        <v>1.046459117905537</v>
+        <v>1.064260119995235</v>
       </c>
       <c r="F4">
-        <v>1.054917615006379</v>
+        <v>1.073208641960743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063581410041938</v>
+        <v>1.077315131677435</v>
       </c>
       <c r="J4">
-        <v>1.056940772134944</v>
+        <v>1.076724733375397</v>
       </c>
       <c r="K4">
-        <v>1.059673504771482</v>
+        <v>1.077719917787614</v>
       </c>
       <c r="L4">
-        <v>1.056027382429204</v>
+        <v>1.07364023806266</v>
       </c>
       <c r="M4">
-        <v>1.064395509494146</v>
+        <v>1.082497051301911</v>
       </c>
       <c r="N4">
-        <v>1.058441749264177</v>
+        <v>1.078253805998843</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040651601806834</v>
+        <v>1.060547283729581</v>
       </c>
       <c r="D5">
-        <v>1.051860641481258</v>
+        <v>1.069858455133173</v>
       </c>
       <c r="E5">
-        <v>1.048397939878173</v>
+        <v>1.065905852861405</v>
       </c>
       <c r="F5">
-        <v>1.056952913216612</v>
+        <v>1.074958978566869</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064435774295114</v>
+        <v>1.078148121522381</v>
       </c>
       <c r="J5">
-        <v>1.058641075276706</v>
+        <v>1.078102917983899</v>
       </c>
       <c r="K5">
-        <v>1.061161054123259</v>
+        <v>1.078975683232346</v>
       </c>
       <c r="L5">
-        <v>1.05773447765233</v>
+        <v>1.075062666175792</v>
       </c>
       <c r="M5">
-        <v>1.066200724402542</v>
+        <v>1.084025647332948</v>
       </c>
       <c r="N5">
-        <v>1.060144467031427</v>
+        <v>1.07963394778757</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041015141976298</v>
+        <v>1.060853661686276</v>
       </c>
       <c r="D6">
-        <v>1.052146906253534</v>
+        <v>1.070104948983193</v>
       </c>
       <c r="E6">
-        <v>1.04872140837236</v>
+        <v>1.066180641879493</v>
       </c>
       <c r="F6">
-        <v>1.057292526891445</v>
+        <v>1.075251283406016</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064578097768826</v>
+        <v>1.07828703227164</v>
       </c>
       <c r="J6">
-        <v>1.058924645516321</v>
+        <v>1.078332938671416</v>
       </c>
       <c r="K6">
-        <v>1.061409107857001</v>
+        <v>1.079185257801166</v>
       </c>
       <c r="L6">
-        <v>1.058019169697273</v>
+        <v>1.075300062845292</v>
       </c>
       <c r="M6">
-        <v>1.066501840164684</v>
+        <v>1.084280825595455</v>
       </c>
       <c r="N6">
-        <v>1.060428439973309</v>
+        <v>1.079864295130847</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038501776615194</v>
+        <v>1.058736969198886</v>
       </c>
       <c r="D7">
-        <v>1.050167887650331</v>
+        <v>1.068402095030961</v>
       </c>
       <c r="E7">
-        <v>1.04648516449588</v>
+        <v>1.064282214186316</v>
       </c>
       <c r="F7">
-        <v>1.054944954359827</v>
+        <v>1.073232137105084</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063592902345456</v>
+        <v>1.077326326386229</v>
       </c>
       <c r="J7">
-        <v>1.056963621438078</v>
+        <v>1.07674324213092</v>
       </c>
       <c r="K7">
-        <v>1.059693497300592</v>
+        <v>1.077736783426685</v>
       </c>
       <c r="L7">
-        <v>1.056050323743151</v>
+        <v>1.073659341558709</v>
       </c>
       <c r="M7">
-        <v>1.064419765353909</v>
+        <v>1.082517576438067</v>
       </c>
       <c r="N7">
-        <v>1.058464631015942</v>
+        <v>1.078272341038921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027639356755101</v>
+        <v>1.049629676003741</v>
       </c>
       <c r="D8">
-        <v>1.041618079641018</v>
+        <v>1.061078743605883</v>
       </c>
       <c r="E8">
-        <v>1.036823068296533</v>
+        <v>1.056114996326016</v>
       </c>
       <c r="F8">
-        <v>1.044809182309462</v>
+        <v>1.064552958230258</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059304151982797</v>
+        <v>1.073167592597201</v>
       </c>
       <c r="J8">
-        <v>1.048475089326304</v>
+        <v>1.069890035398075</v>
       </c>
       <c r="K8">
-        <v>1.052262340701968</v>
+        <v>1.071490359919975</v>
       </c>
       <c r="L8">
-        <v>1.047526320853603</v>
+        <v>1.066584943339133</v>
       </c>
       <c r="M8">
-        <v>1.055414557099576</v>
+        <v>1.074924147839069</v>
       </c>
       <c r="N8">
-        <v>1.049964044214921</v>
+        <v>1.071409401966443</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006951786070097</v>
+        <v>1.032481379731011</v>
       </c>
       <c r="D9">
-        <v>1.025356206874312</v>
+        <v>1.04730771467516</v>
       </c>
       <c r="E9">
-        <v>1.018437982180676</v>
+        <v>1.040744389610083</v>
       </c>
       <c r="F9">
-        <v>1.02555156700408</v>
+        <v>1.048247168527485</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051020067430546</v>
+        <v>1.065242072835398</v>
       </c>
       <c r="J9">
-        <v>1.032261424766163</v>
+        <v>1.056937064904368</v>
       </c>
       <c r="K9">
-        <v>1.038050869356959</v>
+        <v>1.059677207438305</v>
       </c>
       <c r="L9">
-        <v>1.031238834817447</v>
+        <v>1.053209280833636</v>
       </c>
       <c r="M9">
-        <v>1.038243257353264</v>
+        <v>1.060603130052517</v>
       </c>
       <c r="N9">
-        <v>1.033727354391371</v>
+        <v>1.058438036768907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918933858518889</v>
+        <v>1.020178749756096</v>
       </c>
       <c r="D10">
-        <v>1.013543569986427</v>
+        <v>1.037446091821375</v>
       </c>
       <c r="E10">
-        <v>1.00507384955377</v>
+        <v>1.029726508795208</v>
       </c>
       <c r="F10">
-        <v>1.011573064817499</v>
+        <v>1.036577930654878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044915362988592</v>
+        <v>1.059494246881015</v>
       </c>
       <c r="J10">
-        <v>1.020432371097207</v>
+        <v>1.04761402293915</v>
       </c>
       <c r="K10">
-        <v>1.027672522269045</v>
+        <v>1.051170631582867</v>
       </c>
       <c r="L10">
-        <v>1.019352094415921</v>
+        <v>1.043579012561686</v>
       </c>
       <c r="M10">
-        <v>1.025736461325447</v>
+        <v>1.050316739174639</v>
       </c>
       <c r="N10">
-        <v>1.021881502109394</v>
+        <v>1.049101755014732</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9850106366969934</v>
+        <v>1.014611047612099</v>
       </c>
       <c r="D11">
-        <v>1.008152732736212</v>
+        <v>1.032988820591761</v>
       </c>
       <c r="E11">
-        <v>0.9989717592903677</v>
+        <v>1.024743552203117</v>
       </c>
       <c r="F11">
-        <v>1.005195220612269</v>
+        <v>1.031304827437409</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042108548825749</v>
+        <v>1.056879023467229</v>
       </c>
       <c r="J11">
-        <v>1.015020564858815</v>
+        <v>1.043388373793144</v>
       </c>
       <c r="K11">
-        <v>1.022922520981896</v>
+        <v>1.04731432419562</v>
       </c>
       <c r="L11">
-        <v>1.01391309281125</v>
+        <v>1.039213455290832</v>
       </c>
       <c r="M11">
-        <v>1.020019823250689</v>
+        <v>1.04565957992339</v>
       </c>
       <c r="N11">
-        <v>1.0164620104854</v>
+        <v>1.044870104962249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9823933076983925</v>
+        <v>1.012503466215286</v>
       </c>
       <c r="D12">
-        <v>1.006104252959977</v>
+        <v>1.031302575012247</v>
       </c>
       <c r="E12">
-        <v>0.9966524272310644</v>
+        <v>1.022857922080511</v>
       </c>
       <c r="F12">
-        <v>1.002771797780424</v>
+        <v>1.02931006036443</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041038830193484</v>
+        <v>1.055887033231584</v>
       </c>
       <c r="J12">
-        <v>1.012961969053799</v>
+        <v>1.041787924278045</v>
       </c>
       <c r="K12">
-        <v>1.021115432149568</v>
+        <v>1.045853673400913</v>
       </c>
       <c r="L12">
-        <v>1.011844043704701</v>
+        <v>1.037559922872591</v>
       </c>
       <c r="M12">
-        <v>1.01784608648925</v>
+        <v>1.043896474522887</v>
       </c>
       <c r="N12">
-        <v>1.014400491238217</v>
+        <v>1.043267382625265</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982957596751197</v>
+        <v>1.012957394907103</v>
       </c>
       <c r="D13">
-        <v>1.006545826870661</v>
+        <v>1.031665709512797</v>
       </c>
       <c r="E13">
-        <v>0.9971524144620917</v>
+        <v>1.023264018089176</v>
       </c>
       <c r="F13">
-        <v>1.003294191724393</v>
+        <v>1.029739630874867</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041269562941713</v>
+        <v>1.056100777559921</v>
       </c>
       <c r="J13">
-        <v>1.013405822623646</v>
+        <v>1.042132666058549</v>
       </c>
       <c r="K13">
-        <v>1.021505068186148</v>
+        <v>1.046168305742828</v>
       </c>
       <c r="L13">
-        <v>1.012290155770317</v>
+        <v>1.037916102975285</v>
       </c>
       <c r="M13">
-        <v>1.018314728389385</v>
+        <v>1.044276217692291</v>
       </c>
       <c r="N13">
-        <v>1.014844975131044</v>
+        <v>1.043612613978639</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9847955674976072</v>
+        <v>1.014437660695473</v>
       </c>
       <c r="D14">
-        <v>1.007984374331806</v>
+        <v>1.032850075168349</v>
       </c>
       <c r="E14">
-        <v>0.9987811527289016</v>
+        <v>1.024588411934388</v>
       </c>
       <c r="F14">
-        <v>1.004996045097989</v>
+        <v>1.031140694602185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042020695734158</v>
+        <v>1.056797454992443</v>
       </c>
       <c r="J14">
-        <v>1.014851419311656</v>
+        <v>1.043256725177033</v>
       </c>
       <c r="K14">
-        <v>1.022774045129876</v>
+        <v>1.04719417670734</v>
       </c>
       <c r="L14">
-        <v>1.013743090477556</v>
+        <v>1.039077442071891</v>
       </c>
       <c r="M14">
-        <v>1.019841200437939</v>
+        <v>1.045514535879028</v>
       </c>
       <c r="N14">
-        <v>1.016292624732164</v>
+        <v>1.044738269390003</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9859197422559952</v>
+        <v>1.015344361377698</v>
       </c>
       <c r="D15">
-        <v>1.00886445305017</v>
+        <v>1.033575664745107</v>
       </c>
       <c r="E15">
-        <v>0.999777507528723</v>
+        <v>1.025399719706751</v>
       </c>
       <c r="F15">
-        <v>1.006037221487708</v>
+        <v>1.031999055846224</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042479812151804</v>
+        <v>1.057223922878826</v>
       </c>
       <c r="J15">
-        <v>1.015735524825423</v>
+        <v>1.043945126235587</v>
       </c>
       <c r="K15">
-        <v>1.02355010307075</v>
+        <v>1.047822433997512</v>
       </c>
       <c r="L15">
-        <v>1.014631670004069</v>
+        <v>1.039788662235413</v>
       </c>
       <c r="M15">
-        <v>1.020774875781727</v>
+        <v>1.046273014310822</v>
       </c>
       <c r="N15">
-        <v>1.017177985777168</v>
+        <v>1.045427648057021</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9923420196656663</v>
+        <v>1.02054291504594</v>
       </c>
       <c r="D16">
-        <v>1.013895150619994</v>
+        <v>1.03773775704352</v>
       </c>
       <c r="E16">
-        <v>1.005471742610381</v>
+        <v>1.030052504975971</v>
       </c>
       <c r="F16">
-        <v>1.011989037302683</v>
+        <v>1.036923000118581</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045097986964903</v>
+        <v>1.059665016496141</v>
       </c>
       <c r="J16">
-        <v>1.02078503144257</v>
+        <v>1.047890282751338</v>
       </c>
       <c r="K16">
-        <v>1.027982020926667</v>
+        <v>1.051422731728603</v>
       </c>
       <c r="L16">
-        <v>1.01970651135095</v>
+        <v>1.043864405966233</v>
       </c>
       <c r="M16">
-        <v>1.026109096075918</v>
+        <v>1.050621316342174</v>
       </c>
       <c r="N16">
-        <v>1.022234663272898</v>
+        <v>1.04937840714754</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9962693745651574</v>
+        <v>1.023737187301391</v>
       </c>
       <c r="D17">
-        <v>1.016973865040431</v>
+        <v>1.040296756507805</v>
       </c>
       <c r="E17">
-        <v>1.008955633599779</v>
+        <v>1.032912362911034</v>
       </c>
       <c r="F17">
-        <v>1.015631764880167</v>
+        <v>1.039950681743518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046694840646745</v>
+        <v>1.06116135100408</v>
       </c>
       <c r="J17">
-        <v>1.023871673952615</v>
+        <v>1.050312779645941</v>
       </c>
       <c r="K17">
-        <v>1.030690685421538</v>
+        <v>1.053633295802735</v>
       </c>
       <c r="L17">
-        <v>1.022808439305075</v>
+        <v>1.046366920796516</v>
       </c>
       <c r="M17">
-        <v>1.029371153656386</v>
+        <v>1.053292704116926</v>
       </c>
       <c r="N17">
-        <v>1.02532568916935</v>
+        <v>1.051804344265598</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9985256492776091</v>
+        <v>1.02557738651358</v>
       </c>
       <c r="D18">
-        <v>1.018743357168017</v>
+        <v>1.04177150749636</v>
       </c>
       <c r="E18">
-        <v>1.01095770801108</v>
+        <v>1.03456021248319</v>
       </c>
       <c r="F18">
-        <v>1.017725562641498</v>
+        <v>1.041695648836341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047610684192664</v>
+        <v>1.062022061582586</v>
       </c>
       <c r="J18">
-        <v>1.025644471751252</v>
+        <v>1.051707757986228</v>
       </c>
       <c r="K18">
-        <v>1.032246213216072</v>
+        <v>1.054906165125841</v>
       </c>
       <c r="L18">
-        <v>1.024589940288925</v>
+        <v>1.047807914678847</v>
       </c>
       <c r="M18">
-        <v>1.031245186940916</v>
+        <v>1.054831485220091</v>
       </c>
       <c r="N18">
-        <v>1.027101004544204</v>
+        <v>1.053201303635134</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9992893072476441</v>
+        <v>1.026201046340762</v>
       </c>
       <c r="D19">
-        <v>1.019342381378101</v>
+        <v>1.042271399474586</v>
       </c>
       <c r="E19">
-        <v>1.011635421056768</v>
+        <v>1.035118732006526</v>
       </c>
       <c r="F19">
-        <v>1.018434399973896</v>
+        <v>1.042287156249649</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047920393547527</v>
+        <v>1.062313538569026</v>
       </c>
       <c r="J19">
-        <v>1.026244406181404</v>
+        <v>1.052180423577504</v>
       </c>
       <c r="K19">
-        <v>1.032772589186479</v>
+        <v>1.055337443816965</v>
       </c>
       <c r="L19">
-        <v>1.025192806779627</v>
+        <v>1.048296161176342</v>
       </c>
       <c r="M19">
-        <v>1.031879462417634</v>
+        <v>1.055352957374676</v>
       </c>
       <c r="N19">
-        <v>1.02770179095006</v>
+        <v>1.053674640465766</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9958516159621023</v>
+        <v>1.023396870406125</v>
       </c>
       <c r="D20">
-        <v>1.016646296475725</v>
+        <v>1.040024065581298</v>
       </c>
       <c r="E20">
-        <v>1.008584986270664</v>
+        <v>1.032607642101299</v>
       </c>
       <c r="F20">
-        <v>1.015244172749137</v>
+        <v>1.039628035804101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046525141661936</v>
+        <v>1.061002068438424</v>
       </c>
       <c r="J20">
-        <v>1.023543392802706</v>
+        <v>1.050054749975475</v>
       </c>
       <c r="K20">
-        <v>1.030402622713515</v>
+        <v>1.053397846961503</v>
       </c>
       <c r="L20">
-        <v>1.022478540289477</v>
+        <v>1.046100374534309</v>
       </c>
       <c r="M20">
-        <v>1.029024165344659</v>
+        <v>1.053008114094196</v>
       </c>
       <c r="N20">
-        <v>1.024996941822554</v>
+        <v>1.051545948163403</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9842560645637957</v>
+        <v>1.0140028784012</v>
       </c>
       <c r="D21">
-        <v>1.00756207108291</v>
+        <v>1.032502175849598</v>
       </c>
       <c r="E21">
-        <v>0.9983030334315778</v>
+        <v>1.024199394727684</v>
       </c>
       <c r="F21">
-        <v>1.004496442935639</v>
+        <v>1.030729138934569</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041800278034729</v>
+        <v>1.056592882756256</v>
       </c>
       <c r="J21">
-        <v>1.014427106676105</v>
+        <v>1.042926591231389</v>
       </c>
       <c r="K21">
-        <v>1.022401580141603</v>
+        <v>1.046892882681201</v>
       </c>
       <c r="L21">
-        <v>1.013316626842642</v>
+        <v>1.038736361577814</v>
       </c>
       <c r="M21">
-        <v>1.019393126636277</v>
+        <v>1.04515082286765</v>
       </c>
       <c r="N21">
-        <v>1.015867709524001</v>
+        <v>1.04440766661629</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9766099337545251</v>
+        <v>1.007866049156521</v>
       </c>
       <c r="D22">
-        <v>1.001580953139887</v>
+        <v>1.027594247199646</v>
       </c>
       <c r="E22">
-        <v>0.991529856930119</v>
+        <v>1.018710116286174</v>
       </c>
       <c r="F22">
-        <v>0.9974206632604167</v>
+        <v>1.02492339365594</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038670917279757</v>
+        <v>1.053700641969553</v>
       </c>
       <c r="J22">
-        <v>1.008412209838346</v>
+        <v>1.038264834202674</v>
       </c>
       <c r="K22">
-        <v>1.017121155964058</v>
+        <v>1.042638185114032</v>
       </c>
       <c r="L22">
-        <v>1.00727099738452</v>
+        <v>1.033919816255638</v>
       </c>
       <c r="M22">
-        <v>1.013043391075253</v>
+        <v>1.040016770914308</v>
       </c>
       <c r="N22">
-        <v>1.009844270842814</v>
+        <v>1.039739289357883</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9806993963552378</v>
+        <v>1.011142375250535</v>
       </c>
       <c r="D23">
-        <v>1.004778957969772</v>
+        <v>1.03021388499899</v>
       </c>
       <c r="E23">
-        <v>0.9951517229512171</v>
+        <v>1.021640353153721</v>
       </c>
       <c r="F23">
-        <v>1.001203945915125</v>
+        <v>1.02802220549251</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040345869369461</v>
+        <v>1.055245835469016</v>
       </c>
       <c r="J23">
-        <v>1.011629506786925</v>
+        <v>1.040754103465521</v>
       </c>
       <c r="K23">
-        <v>1.01994570190461</v>
+        <v>1.044910134289377</v>
       </c>
       <c r="L23">
-        <v>1.010504786590998</v>
+        <v>1.03649178736807</v>
       </c>
       <c r="M23">
-        <v>1.016439330605563</v>
+        <v>1.042757805139697</v>
       </c>
       <c r="N23">
-        <v>1.013066136722089</v>
+        <v>1.042232093668606</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9960404891951264</v>
+        <v>1.023550715685519</v>
       </c>
       <c r="D24">
-        <v>1.016794391450436</v>
+        <v>1.040147337911689</v>
       </c>
       <c r="E24">
-        <v>1.008752558220184</v>
+        <v>1.032745394707014</v>
       </c>
       <c r="F24">
-        <v>1.015419404163859</v>
+        <v>1.039773890376815</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046601869266512</v>
+        <v>1.061074078573937</v>
       </c>
       <c r="J24">
-        <v>1.023691813820888</v>
+        <v>1.050171397988007</v>
       </c>
       <c r="K24">
-        <v>1.030532860912018</v>
+        <v>1.053504287027048</v>
       </c>
       <c r="L24">
-        <v>1.022627693006924</v>
+        <v>1.046220872854059</v>
       </c>
       <c r="M24">
-        <v>1.029181042649977</v>
+        <v>1.053136767807833</v>
       </c>
       <c r="N24">
-        <v>1.025145573615606</v>
+        <v>1.051662761829493</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012504752666006</v>
+        <v>1.037057580886668</v>
       </c>
       <c r="D25">
-        <v>1.029717867349251</v>
+        <v>1.050980010290234</v>
       </c>
       <c r="E25">
-        <v>1.023370370669505</v>
+        <v>1.04484492020758</v>
       </c>
       <c r="F25">
-        <v>1.030714694995536</v>
+        <v>1.052593928989282</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053256666467761</v>
+        <v>1.067367818755391</v>
       </c>
       <c r="J25">
-        <v>1.036618488010664</v>
+        <v>1.060399081132835</v>
       </c>
       <c r="K25">
-        <v>1.041871725189974</v>
+        <v>1.062835310198545</v>
       </c>
       <c r="L25">
-        <v>1.035616409505371</v>
+        <v>1.056784794104332</v>
       </c>
       <c r="M25">
-        <v>1.042854207134869</v>
+        <v>1.064427186757179</v>
       </c>
       <c r="N25">
-        <v>1.038090605165442</v>
+        <v>1.061904969457519</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047214761059907</v>
+        <v>1.02348974524288</v>
       </c>
       <c r="D2">
-        <v>1.059137885000845</v>
+        <v>1.036752304487396</v>
       </c>
       <c r="E2">
-        <v>1.05394972152032</v>
+        <v>1.035263196818038</v>
       </c>
       <c r="F2">
-        <v>1.062253829611095</v>
+        <v>1.042990918224451</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.072058502179942</v>
+        <v>1.057430644367498</v>
       </c>
       <c r="J2">
-        <v>1.068069496457664</v>
+        <v>1.04498988371224</v>
       </c>
       <c r="K2">
-        <v>1.069830520187078</v>
+        <v>1.047722308358617</v>
       </c>
       <c r="L2">
-        <v>1.064705336492973</v>
+        <v>1.046252182989767</v>
       </c>
       <c r="M2">
-        <v>1.072909006783961</v>
+        <v>1.053882130574524</v>
       </c>
       <c r="N2">
-        <v>1.069586277651918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.018421807961715</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.051216404340945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.054275984591216</v>
+        <v>1.027705163587184</v>
       </c>
       <c r="D3">
-        <v>1.0648142102744</v>
+        <v>1.039815276838299</v>
       </c>
       <c r="E3">
-        <v>1.060281468062441</v>
+        <v>1.038582685928964</v>
       </c>
       <c r="F3">
-        <v>1.068979157381343</v>
+        <v>1.046127302715835</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.075294191814695</v>
+        <v>1.058862115002122</v>
       </c>
       <c r="J3">
-        <v>1.073388960275509</v>
+        <v>1.047468030887603</v>
       </c>
       <c r="K3">
-        <v>1.074679878084747</v>
+        <v>1.04996285085586</v>
       </c>
       <c r="L3">
-        <v>1.070197037068234</v>
+        <v>1.048744593471186</v>
       </c>
       <c r="M3">
-        <v>1.078799430808503</v>
+        <v>1.056202128967682</v>
       </c>
       <c r="N3">
-        <v>1.074913295718535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.019283687233453</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.053052498499082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058712334403601</v>
+        <v>1.030379456983598</v>
       </c>
       <c r="D4">
-        <v>1.068382278222657</v>
+        <v>1.041760484633536</v>
       </c>
       <c r="E4">
-        <v>1.064260119995235</v>
+        <v>1.040694308174291</v>
       </c>
       <c r="F4">
-        <v>1.073208641960743</v>
+        <v>1.048124614341042</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.077315131677435</v>
+        <v>1.059760279464156</v>
       </c>
       <c r="J4">
-        <v>1.076724733375397</v>
+        <v>1.049036732489975</v>
       </c>
       <c r="K4">
-        <v>1.077719917787614</v>
+        <v>1.051379727086249</v>
       </c>
       <c r="L4">
-        <v>1.07364023806266</v>
+        <v>1.050325196800922</v>
       </c>
       <c r="M4">
-        <v>1.082497051301911</v>
+        <v>1.057674943494163</v>
       </c>
       <c r="N4">
-        <v>1.078253805998843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.019828822278415</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.054218111704223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.060547283729581</v>
+        <v>1.031491359087193</v>
       </c>
       <c r="D5">
-        <v>1.069858455133173</v>
+        <v>1.042569695308931</v>
       </c>
       <c r="E5">
-        <v>1.065905852861405</v>
+        <v>1.041573597772641</v>
       </c>
       <c r="F5">
-        <v>1.074958978566869</v>
+        <v>1.048956817829448</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.078148121522381</v>
+        <v>1.060131281942717</v>
       </c>
       <c r="J5">
-        <v>1.078102917983899</v>
+        <v>1.049688096230634</v>
       </c>
       <c r="K5">
-        <v>1.078975683232346</v>
+        <v>1.05196770005702</v>
       </c>
       <c r="L5">
-        <v>1.075062666175792</v>
+        <v>1.05098219200555</v>
       </c>
       <c r="M5">
-        <v>1.084025647332948</v>
+        <v>1.058287505309365</v>
       </c>
       <c r="N5">
-        <v>1.07963394778757</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.020055063156176</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.054702904153925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060853661686276</v>
+        <v>1.031677338335077</v>
       </c>
       <c r="D6">
-        <v>1.070104948983193</v>
+        <v>1.042705070503575</v>
       </c>
       <c r="E6">
-        <v>1.066180641879493</v>
+        <v>1.04172074689447</v>
       </c>
       <c r="F6">
-        <v>1.075251283406016</v>
+        <v>1.049096117075023</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.07828703227164</v>
+        <v>1.060193192632428</v>
       </c>
       <c r="J6">
-        <v>1.078332938671416</v>
+        <v>1.04979699318192</v>
       </c>
       <c r="K6">
-        <v>1.079185257801166</v>
+        <v>1.05206597836667</v>
       </c>
       <c r="L6">
-        <v>1.075300062845292</v>
+        <v>1.051092070999558</v>
       </c>
       <c r="M6">
-        <v>1.084280825595455</v>
+        <v>1.058389974776919</v>
       </c>
       <c r="N6">
-        <v>1.079864295130847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.020092880000812</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.054784000305251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,81 +668,93 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058736969198886</v>
+        <v>1.030394362359687</v>
       </c>
       <c r="D7">
-        <v>1.068402095030961</v>
+        <v>1.041771330647863</v>
       </c>
       <c r="E7">
-        <v>1.064282214186316</v>
+        <v>1.040706090102186</v>
       </c>
       <c r="F7">
-        <v>1.073232137105084</v>
+        <v>1.048135763326787</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.077326326386229</v>
+        <v>1.059765262514497</v>
       </c>
       <c r="J7">
-        <v>1.07674324213092</v>
+        <v>1.049045467660565</v>
       </c>
       <c r="K7">
-        <v>1.077736783426685</v>
+        <v>1.05138761354064</v>
       </c>
       <c r="L7">
-        <v>1.073659341558709</v>
+        <v>1.05033400476701</v>
       </c>
       <c r="M7">
-        <v>1.082517576438067</v>
+        <v>1.057683154306119</v>
       </c>
       <c r="N7">
-        <v>1.078272341038921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.019831856754196</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.05422460989069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C8">
-        <v>1.049629676003741</v>
+        <v>1.024925664589687</v>
       </c>
       <c r="D8">
-        <v>1.061078743605883</v>
+        <v>1.037795206105069</v>
       </c>
       <c r="E8">
-        <v>1.056114996326016</v>
+        <v>1.036392709493478</v>
       </c>
       <c r="F8">
-        <v>1.064552958230258</v>
+        <v>1.044057668847616</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.073167592597201</v>
+        <v>1.057920319502577</v>
       </c>
       <c r="J8">
-        <v>1.069890035398075</v>
+        <v>1.045834730906053</v>
       </c>
       <c r="K8">
-        <v>1.071490359919975</v>
+        <v>1.048486443926794</v>
       </c>
       <c r="L8">
-        <v>1.066584943339133</v>
+        <v>1.047101289854325</v>
       </c>
       <c r="M8">
-        <v>1.074924147839069</v>
+        <v>1.054672174871772</v>
       </c>
       <c r="N8">
-        <v>1.071409401966443</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.018715729205057</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.051841662053057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032481379731011</v>
+        <v>1.014861270484375</v>
       </c>
       <c r="D9">
-        <v>1.04730771467516</v>
+        <v>1.030496009285674</v>
       </c>
       <c r="E9">
-        <v>1.040744389610083</v>
+        <v>1.028501823355561</v>
       </c>
       <c r="F9">
-        <v>1.048247168527485</v>
+        <v>1.036614672932451</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.065242072835398</v>
+        <v>1.054447527151944</v>
       </c>
       <c r="J9">
-        <v>1.056937064904368</v>
+        <v>1.039899937039536</v>
       </c>
       <c r="K9">
-        <v>1.059677207438305</v>
+        <v>1.043112954417938</v>
       </c>
       <c r="L9">
-        <v>1.053209280833636</v>
+        <v>1.041148804492025</v>
       </c>
       <c r="M9">
-        <v>1.060603130052517</v>
+        <v>1.049140376656854</v>
       </c>
       <c r="N9">
-        <v>1.058438036768907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0166493519585</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047463669323372</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020178749756096</v>
+        <v>1.007925020336185</v>
       </c>
       <c r="D10">
-        <v>1.037446091821375</v>
+        <v>1.025491993139824</v>
       </c>
       <c r="E10">
-        <v>1.029726508795208</v>
+        <v>1.023135973947097</v>
       </c>
       <c r="F10">
-        <v>1.036577930654878</v>
+        <v>1.031609633525991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059494246881015</v>
+        <v>1.052028834033422</v>
       </c>
       <c r="J10">
-        <v>1.04761402293915</v>
+        <v>1.035827699152212</v>
       </c>
       <c r="K10">
-        <v>1.051170631582867</v>
+        <v>1.039415746344509</v>
       </c>
       <c r="L10">
-        <v>1.043579012561686</v>
+        <v>1.03709969896374</v>
       </c>
       <c r="M10">
-        <v>1.050316739174639</v>
+        <v>1.045430694107276</v>
       </c>
       <c r="N10">
-        <v>1.049101755014732</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01524299508328</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044578786887756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014611047612099</v>
+        <v>1.005563333183169</v>
       </c>
       <c r="D11">
-        <v>1.032988820591761</v>
+        <v>1.023882862650108</v>
       </c>
       <c r="E11">
-        <v>1.024743552203117</v>
+        <v>1.021624775906191</v>
       </c>
       <c r="F11">
-        <v>1.031304827437409</v>
+        <v>1.030556311919002</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056879023467229</v>
+        <v>1.051388478462526</v>
       </c>
       <c r="J11">
-        <v>1.043388373793144</v>
+        <v>1.034706488556605</v>
       </c>
       <c r="K11">
-        <v>1.04731432419562</v>
+        <v>1.038368012926965</v>
       </c>
       <c r="L11">
-        <v>1.039213455290832</v>
+        <v>1.036150086922564</v>
       </c>
       <c r="M11">
-        <v>1.04565957992339</v>
+        <v>1.0449241049317</v>
       </c>
       <c r="N11">
-        <v>1.044870104962249</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.014970105647854</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.044611023991995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.012503466215286</v>
+        <v>1.004948218985629</v>
       </c>
       <c r="D12">
-        <v>1.031302575012247</v>
+        <v>1.023508671916839</v>
       </c>
       <c r="E12">
-        <v>1.022857922080511</v>
+        <v>1.021380553422234</v>
       </c>
       <c r="F12">
-        <v>1.02931006036443</v>
+        <v>1.030587894164416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055887033231584</v>
+        <v>1.051313257726163</v>
       </c>
       <c r="J12">
-        <v>1.041787924278045</v>
+        <v>1.034544627700229</v>
       </c>
       <c r="K12">
-        <v>1.045853673400913</v>
+        <v>1.03819892897702</v>
       </c>
       <c r="L12">
-        <v>1.037559922872591</v>
+        <v>1.036109287745149</v>
       </c>
       <c r="M12">
-        <v>1.043896474522887</v>
+        <v>1.045151639340151</v>
       </c>
       <c r="N12">
-        <v>1.043267382625265</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.015006463758961</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045115258710773</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012957394907103</v>
+        <v>1.005639139139808</v>
       </c>
       <c r="D13">
-        <v>1.031665709512797</v>
+        <v>1.024061390854886</v>
       </c>
       <c r="E13">
-        <v>1.023264018089176</v>
+        <v>1.022098109256989</v>
       </c>
       <c r="F13">
-        <v>1.029739630874867</v>
+        <v>1.031469382086255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056100777559921</v>
+        <v>1.05167403173536</v>
       </c>
       <c r="J13">
-        <v>1.042132666058549</v>
+        <v>1.03511498755258</v>
       </c>
       <c r="K13">
-        <v>1.046168305742828</v>
+        <v>1.038699151469195</v>
       </c>
       <c r="L13">
-        <v>1.037916102975285</v>
+        <v>1.036771191218084</v>
       </c>
       <c r="M13">
-        <v>1.044276217692291</v>
+        <v>1.045975435483975</v>
       </c>
       <c r="N13">
-        <v>1.043612613978639</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.015284318359521</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.04604163152479</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014437660695473</v>
+        <v>1.006709274459537</v>
       </c>
       <c r="D14">
-        <v>1.032850075168349</v>
+        <v>1.024863847168307</v>
       </c>
       <c r="E14">
-        <v>1.024588411934388</v>
+        <v>1.023030097808244</v>
       </c>
       <c r="F14">
-        <v>1.031140694602185</v>
+        <v>1.032466088344167</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056797454992443</v>
+        <v>1.05212069537108</v>
       </c>
       <c r="J14">
-        <v>1.043256725177033</v>
+        <v>1.035840838364173</v>
       </c>
       <c r="K14">
-        <v>1.04719417670734</v>
+        <v>1.03934799669517</v>
       </c>
       <c r="L14">
-        <v>1.039077442071891</v>
+        <v>1.03754680493716</v>
       </c>
       <c r="M14">
-        <v>1.045514535879028</v>
+        <v>1.046816859370695</v>
       </c>
       <c r="N14">
-        <v>1.044738269390003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015585695000369</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.04687914706656</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015344361377698</v>
+        <v>1.007259208496041</v>
       </c>
       <c r="D15">
-        <v>1.033575664745107</v>
+        <v>1.025266154424732</v>
       </c>
       <c r="E15">
-        <v>1.025399719706751</v>
+        <v>1.023475569606542</v>
       </c>
       <c r="F15">
-        <v>1.031999055846224</v>
+        <v>1.032909538969427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057223922878826</v>
+        <v>1.052328770149916</v>
       </c>
       <c r="J15">
-        <v>1.043945126235587</v>
+        <v>1.036183801941797</v>
       </c>
       <c r="K15">
-        <v>1.047822433997512</v>
+        <v>1.039657443945854</v>
       </c>
       <c r="L15">
-        <v>1.039788662235413</v>
+        <v>1.037898399765658</v>
       </c>
       <c r="M15">
-        <v>1.046273014310822</v>
+        <v>1.047167782715883</v>
       </c>
       <c r="N15">
-        <v>1.045427648057021</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01571457061761</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047193865499186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02054291504594</v>
+        <v>1.010062734141709</v>
       </c>
       <c r="D16">
-        <v>1.03773775704352</v>
+        <v>1.027276705160199</v>
       </c>
       <c r="E16">
-        <v>1.030052504975971</v>
+        <v>1.025611655595267</v>
       </c>
       <c r="F16">
-        <v>1.036923000118581</v>
+        <v>1.03488853919839</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059665016496141</v>
+        <v>1.053298382357177</v>
       </c>
       <c r="J16">
-        <v>1.047890282751338</v>
+        <v>1.0378071920516</v>
       </c>
       <c r="K16">
-        <v>1.051422731728603</v>
+        <v>1.041135051931985</v>
       </c>
       <c r="L16">
-        <v>1.043864405966233</v>
+        <v>1.039498018238992</v>
       </c>
       <c r="M16">
-        <v>1.050621316342174</v>
+        <v>1.048620287446252</v>
       </c>
       <c r="N16">
-        <v>1.04937840714754</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.016258659788803</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048303421031808</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023737187301391</v>
+        <v>1.011653974298302</v>
       </c>
       <c r="D17">
-        <v>1.040296756507805</v>
+        <v>1.028400145100729</v>
       </c>
       <c r="E17">
-        <v>1.032912362911034</v>
+        <v>1.026763303814935</v>
       </c>
       <c r="F17">
-        <v>1.039950681743518</v>
+        <v>1.035880365925361</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06116135100408</v>
+        <v>1.053805726062599</v>
       </c>
       <c r="J17">
-        <v>1.050312779645941</v>
+        <v>1.038671558330162</v>
       </c>
       <c r="K17">
-        <v>1.053633295802735</v>
+        <v>1.041927889911929</v>
       </c>
       <c r="L17">
-        <v>1.046366920796516</v>
+        <v>1.04031780214037</v>
       </c>
       <c r="M17">
-        <v>1.053292704116926</v>
+        <v>1.04928722938422</v>
       </c>
       <c r="N17">
-        <v>1.051804344265598</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.016517827740435</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048702317448906</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02557738651358</v>
+        <v>1.012336208972984</v>
       </c>
       <c r="D18">
-        <v>1.04177150749636</v>
+        <v>1.028848400744528</v>
       </c>
       <c r="E18">
-        <v>1.03456021248319</v>
+        <v>1.027143748807745</v>
       </c>
       <c r="F18">
-        <v>1.041695648836341</v>
+        <v>1.036063032932597</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062022061582586</v>
+        <v>1.053949864475239</v>
       </c>
       <c r="J18">
-        <v>1.051707757986228</v>
+        <v>1.03894113576115</v>
       </c>
       <c r="K18">
-        <v>1.054906165125841</v>
+        <v>1.042187083864544</v>
       </c>
       <c r="L18">
-        <v>1.047807914678847</v>
+        <v>1.040509836137116</v>
       </c>
       <c r="M18">
-        <v>1.054831485220091</v>
+        <v>1.049287010721979</v>
       </c>
       <c r="N18">
-        <v>1.053201303635134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01654500990086</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.048466047654337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026201046340762</v>
+        <v>1.012186247852698</v>
       </c>
       <c r="D19">
-        <v>1.042271399474586</v>
+        <v>1.028677043696313</v>
       </c>
       <c r="E19">
-        <v>1.035118732006526</v>
+        <v>1.026813300120089</v>
       </c>
       <c r="F19">
-        <v>1.042287156249649</v>
+        <v>1.035497999534783</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062313538569026</v>
+        <v>1.053761387467215</v>
       </c>
       <c r="J19">
-        <v>1.052180423577504</v>
+        <v>1.038664664281985</v>
       </c>
       <c r="K19">
-        <v>1.055337443816965</v>
+        <v>1.04195648509932</v>
       </c>
       <c r="L19">
-        <v>1.048296161176342</v>
+        <v>1.040122562406079</v>
       </c>
       <c r="M19">
-        <v>1.055352957374676</v>
+        <v>1.048669473142845</v>
       </c>
       <c r="N19">
-        <v>1.053674640465766</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.016363170894133</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.047654685246365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023396870406125</v>
+        <v>1.009727180906772</v>
       </c>
       <c r="D20">
-        <v>1.040024065581298</v>
+        <v>1.026791333801734</v>
       </c>
       <c r="E20">
-        <v>1.032607642101299</v>
+        <v>1.024529201094859</v>
       </c>
       <c r="F20">
-        <v>1.039628035804101</v>
+        <v>1.032910621629265</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061002068438424</v>
+        <v>1.052661830154285</v>
       </c>
       <c r="J20">
-        <v>1.050054749975475</v>
+        <v>1.036888217986815</v>
       </c>
       <c r="K20">
-        <v>1.053397846961503</v>
+        <v>1.040378899228466</v>
       </c>
       <c r="L20">
-        <v>1.046100374534309</v>
+        <v>1.038154024088284</v>
       </c>
       <c r="M20">
-        <v>1.053008114094196</v>
+        <v>1.046398451651938</v>
       </c>
       <c r="N20">
-        <v>1.051545948163403</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015609913964821</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045334187375813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.0140028784012</v>
+        <v>1.004372715970916</v>
       </c>
       <c r="D21">
-        <v>1.032502175849598</v>
+        <v>1.022917505195936</v>
       </c>
       <c r="E21">
-        <v>1.024199394727684</v>
+        <v>1.020340680624906</v>
       </c>
       <c r="F21">
-        <v>1.030729138934569</v>
+        <v>1.028938575453678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056592882756256</v>
+        <v>1.050741097232432</v>
       </c>
       <c r="J21">
-        <v>1.042926591231389</v>
+        <v>1.033688746582233</v>
       </c>
       <c r="K21">
-        <v>1.046892882681201</v>
+        <v>1.037477328272655</v>
       </c>
       <c r="L21">
-        <v>1.038736361577814</v>
+        <v>1.034946674538776</v>
       </c>
       <c r="M21">
-        <v>1.04515082286765</v>
+        <v>1.043391683133884</v>
       </c>
       <c r="N21">
-        <v>1.04440766661629</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014483526849139</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.04291399316418</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.007866049156521</v>
+        <v>1.000975094986889</v>
       </c>
       <c r="D22">
-        <v>1.027594247199646</v>
+        <v>1.02046930977084</v>
       </c>
       <c r="E22">
-        <v>1.018710116286174</v>
+        <v>1.017710205585275</v>
       </c>
       <c r="F22">
-        <v>1.02492339365594</v>
+        <v>1.026468862148222</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053700641969553</v>
+        <v>1.049524592088383</v>
       </c>
       <c r="J22">
-        <v>1.038264834202674</v>
+        <v>1.031672549590864</v>
       </c>
       <c r="K22">
-        <v>1.042638185114032</v>
+        <v>1.035645887020294</v>
       </c>
       <c r="L22">
-        <v>1.033919816255638</v>
+        <v>1.032938798942508</v>
       </c>
       <c r="M22">
-        <v>1.040016770914308</v>
+        <v>1.041533590827044</v>
       </c>
       <c r="N22">
-        <v>1.039739289357883</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013780003152381</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041443441098545</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011142375250535</v>
+        <v>1.002783566653678</v>
       </c>
       <c r="D23">
-        <v>1.03021388499899</v>
+        <v>1.021771997504743</v>
       </c>
       <c r="E23">
-        <v>1.021640353153721</v>
+        <v>1.019109548895375</v>
       </c>
       <c r="F23">
-        <v>1.02802220549251</v>
+        <v>1.027782423741228</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055245835469016</v>
+        <v>1.050172987590313</v>
       </c>
       <c r="J23">
-        <v>1.040754103465521</v>
+        <v>1.03274593368593</v>
       </c>
       <c r="K23">
-        <v>1.044910134289377</v>
+        <v>1.036621023262029</v>
       </c>
       <c r="L23">
-        <v>1.03649178736807</v>
+        <v>1.034007442249537</v>
       </c>
       <c r="M23">
-        <v>1.042757805139697</v>
+        <v>1.042522341770823</v>
       </c>
       <c r="N23">
-        <v>1.042232093668606</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014154568928755</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.042225969731326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023550715685519</v>
+        <v>1.009744638733774</v>
       </c>
       <c r="D24">
-        <v>1.040147337911689</v>
+        <v>1.026795165892028</v>
       </c>
       <c r="E24">
-        <v>1.032745394707014</v>
+        <v>1.02451280083345</v>
       </c>
       <c r="F24">
-        <v>1.039773890376815</v>
+        <v>1.032860081487734</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061074078573937</v>
+        <v>1.052649286422701</v>
       </c>
       <c r="J24">
-        <v>1.050171397988007</v>
+        <v>1.036872668987765</v>
       </c>
       <c r="K24">
-        <v>1.053504287027048</v>
+        <v>1.040367519487936</v>
       </c>
       <c r="L24">
-        <v>1.046220872854059</v>
+        <v>1.038122697708637</v>
       </c>
       <c r="M24">
-        <v>1.053136767807833</v>
+        <v>1.046333706497469</v>
       </c>
       <c r="N24">
-        <v>1.051662761829493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015594074536982</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045242395918385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037057580886668</v>
+        <v>1.017516672112793</v>
       </c>
       <c r="D25">
-        <v>1.050980010290234</v>
+        <v>1.032419388108643</v>
       </c>
       <c r="E25">
-        <v>1.04484492020758</v>
+        <v>1.030577962043423</v>
       </c>
       <c r="F25">
-        <v>1.052593928989282</v>
+        <v>1.03857087838606</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.067367818755391</v>
+        <v>1.05537257924192</v>
       </c>
       <c r="J25">
-        <v>1.060399081132835</v>
+        <v>1.041468576193239</v>
       </c>
       <c r="K25">
-        <v>1.062835310198545</v>
+        <v>1.044534448667838</v>
       </c>
       <c r="L25">
-        <v>1.056784794104332</v>
+        <v>1.04271943987558</v>
       </c>
       <c r="M25">
-        <v>1.064427186757179</v>
+        <v>1.050598547447503</v>
       </c>
       <c r="N25">
-        <v>1.061904969457519</v>
+        <v>1.017195869771323</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048617701827851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02348974524288</v>
+        <v>1.021731335918387</v>
       </c>
       <c r="D2">
-        <v>1.036752304487396</v>
+        <v>1.0342389927189</v>
       </c>
       <c r="E2">
-        <v>1.035263196818038</v>
+        <v>1.033876860831755</v>
       </c>
       <c r="F2">
-        <v>1.042990918224451</v>
+        <v>1.041835455104367</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057430644367498</v>
+        <v>1.056043730498267</v>
       </c>
       <c r="J2">
-        <v>1.04498988371224</v>
+        <v>1.043280940830147</v>
       </c>
       <c r="K2">
-        <v>1.047722308358617</v>
+        <v>1.04524107451623</v>
       </c>
       <c r="L2">
-        <v>1.046252182989767</v>
+        <v>1.044883580661668</v>
       </c>
       <c r="M2">
-        <v>1.053882130574524</v>
+        <v>1.052741171744154</v>
       </c>
       <c r="N2">
-        <v>1.018421807961715</v>
+        <v>1.018374013754338</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.051216404340945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050313424548424</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023951022346552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027705163587184</v>
+        <v>1.025671608310745</v>
       </c>
       <c r="D3">
-        <v>1.039815276838299</v>
+        <v>1.036962523488048</v>
       </c>
       <c r="E3">
-        <v>1.038582685928964</v>
+        <v>1.036967287975711</v>
       </c>
       <c r="F3">
-        <v>1.046127302715835</v>
+        <v>1.044788123609799</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058862115002122</v>
+        <v>1.057276204734132</v>
       </c>
       <c r="J3">
-        <v>1.047468030887603</v>
+        <v>1.045486089631187</v>
       </c>
       <c r="K3">
-        <v>1.04996285085586</v>
+        <v>1.047143335652064</v>
       </c>
       <c r="L3">
-        <v>1.048744593471186</v>
+        <v>1.047148044438888</v>
       </c>
       <c r="M3">
-        <v>1.056202128967682</v>
+        <v>1.054878293562997</v>
       </c>
       <c r="N3">
-        <v>1.019283687233453</v>
+        <v>1.018978163843201</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.053052498499082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052004788644901</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02436494468748</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030379456983598</v>
+        <v>1.028173387831904</v>
       </c>
       <c r="D4">
-        <v>1.041760484633536</v>
+        <v>1.03869384557855</v>
       </c>
       <c r="E4">
-        <v>1.040694308174291</v>
+        <v>1.038935213417387</v>
       </c>
       <c r="F4">
-        <v>1.048124614341042</v>
+        <v>1.046670198799442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059760279464156</v>
+        <v>1.058048836918515</v>
       </c>
       <c r="J4">
-        <v>1.049036732489975</v>
+        <v>1.046882875904566</v>
       </c>
       <c r="K4">
-        <v>1.051379727086249</v>
+        <v>1.048346665124037</v>
       </c>
       <c r="L4">
-        <v>1.050325196800922</v>
+        <v>1.048585381362162</v>
       </c>
       <c r="M4">
-        <v>1.057674943494163</v>
+        <v>1.056236186366557</v>
       </c>
       <c r="N4">
-        <v>1.019828822278415</v>
+        <v>1.019360688001258</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.054218111704223</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.053079452187458</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024624163106485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031491359087193</v>
+        <v>1.02921402195497</v>
       </c>
       <c r="D5">
-        <v>1.042569695308931</v>
+        <v>1.039414459388985</v>
       </c>
       <c r="E5">
-        <v>1.041573597772641</v>
+        <v>1.039755127564996</v>
       </c>
       <c r="F5">
-        <v>1.048956817829448</v>
+        <v>1.04745478812786</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060131281942717</v>
+        <v>1.058367806851818</v>
       </c>
       <c r="J5">
-        <v>1.049688096230634</v>
+        <v>1.047463052587793</v>
       </c>
       <c r="K5">
-        <v>1.05196770005702</v>
+        <v>1.04884609269695</v>
       </c>
       <c r="L5">
-        <v>1.05098219200555</v>
+        <v>1.049183117988966</v>
       </c>
       <c r="M5">
-        <v>1.058287505309365</v>
+        <v>1.056801216050099</v>
       </c>
       <c r="N5">
-        <v>1.020055063156176</v>
+        <v>1.019519534868304</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.054702904153925</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.053526627536509</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024731112925066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031677338335077</v>
+        <v>1.02938810686354</v>
       </c>
       <c r="D6">
-        <v>1.042705070503575</v>
+        <v>1.039535034617317</v>
       </c>
       <c r="E6">
-        <v>1.04172074689447</v>
+        <v>1.039892366621352</v>
       </c>
       <c r="F6">
-        <v>1.049096117075023</v>
+        <v>1.04758614036307</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060193192632428</v>
+        <v>1.058421023602459</v>
       </c>
       <c r="J6">
-        <v>1.04979699318192</v>
+        <v>1.047560059294379</v>
       </c>
       <c r="K6">
-        <v>1.05206597836667</v>
+        <v>1.048929574556051</v>
       </c>
       <c r="L6">
-        <v>1.051092070999558</v>
+        <v>1.049283102942211</v>
       </c>
       <c r="M6">
-        <v>1.058389974776919</v>
+        <v>1.056895749455221</v>
       </c>
       <c r="N6">
-        <v>1.020092880000812</v>
+        <v>1.019546091925166</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.054784000305251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.053601443064003</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024748952542839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,93 +719,111 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030394362359687</v>
+        <v>1.028197131896486</v>
       </c>
       <c r="D7">
-        <v>1.041771330647863</v>
+        <v>1.038711411508091</v>
       </c>
       <c r="E7">
-        <v>1.040706090102186</v>
+        <v>1.038954690783788</v>
       </c>
       <c r="F7">
-        <v>1.048135763326787</v>
+        <v>1.046687320889441</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059765262514497</v>
+        <v>1.058058642834373</v>
       </c>
       <c r="J7">
-        <v>1.049045467660565</v>
+        <v>1.046900219076137</v>
       </c>
       <c r="K7">
-        <v>1.05138761354064</v>
+        <v>1.048361185651629</v>
       </c>
       <c r="L7">
-        <v>1.05033400476701</v>
+        <v>1.048601793334168</v>
       </c>
       <c r="M7">
-        <v>1.057683154306119</v>
+        <v>1.056250300284054</v>
       </c>
       <c r="N7">
-        <v>1.019831856754196</v>
+        <v>1.01939197916811</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.05422460989069</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.053090622216201</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024628348121927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024925664589687</v>
+        <v>1.023103267834171</v>
       </c>
       <c r="D8">
-        <v>1.037795206105069</v>
+        <v>1.035190384914203</v>
       </c>
       <c r="E8">
-        <v>1.036392709493478</v>
+        <v>1.034954272211614</v>
       </c>
       <c r="F8">
-        <v>1.044057668847616</v>
+        <v>1.042859772455437</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057920319502577</v>
+        <v>1.056482466179553</v>
       </c>
       <c r="J8">
-        <v>1.045834730906053</v>
+        <v>1.044061879240958</v>
       </c>
       <c r="K8">
-        <v>1.048486443926794</v>
+        <v>1.045913879186201</v>
       </c>
       <c r="L8">
-        <v>1.047101289854325</v>
+        <v>1.045680700350401</v>
       </c>
       <c r="M8">
-        <v>1.054672174871772</v>
+        <v>1.053488867288338</v>
       </c>
       <c r="N8">
-        <v>1.018715729205057</v>
+        <v>1.018668886252326</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.051841662053057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050905167291286</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024101300116277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014861270484375</v>
+        <v>1.013713465063666</v>
       </c>
       <c r="D9">
-        <v>1.030496009285674</v>
+        <v>1.028714603826277</v>
       </c>
       <c r="E9">
-        <v>1.028501823355561</v>
+        <v>1.027624583891491</v>
       </c>
       <c r="F9">
-        <v>1.036614672932451</v>
+        <v>1.035866896385949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054447527151944</v>
+        <v>1.053491867865099</v>
       </c>
       <c r="J9">
-        <v>1.039899937039536</v>
+        <v>1.038791088874814</v>
       </c>
       <c r="K9">
-        <v>1.043112954417938</v>
+        <v>1.04135837304061</v>
       </c>
       <c r="L9">
-        <v>1.041148804492025</v>
+        <v>1.040284824855299</v>
       </c>
       <c r="M9">
-        <v>1.049140376656854</v>
+        <v>1.048403677455321</v>
       </c>
       <c r="N9">
-        <v>1.0166493519585</v>
+        <v>1.017234231183937</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047463669323372</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.046880626631651</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023096018585721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007925020336185</v>
+        <v>1.007293605359756</v>
       </c>
       <c r="D10">
-        <v>1.025491993139824</v>
+        <v>1.024317526167425</v>
       </c>
       <c r="E10">
-        <v>1.023135973947097</v>
+        <v>1.022688190404015</v>
       </c>
       <c r="F10">
-        <v>1.031609633525991</v>
+        <v>1.031206017084212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052028834033422</v>
+        <v>1.051431231690586</v>
       </c>
       <c r="J10">
-        <v>1.035827699152212</v>
+        <v>1.035220804425157</v>
       </c>
       <c r="K10">
-        <v>1.039415746344509</v>
+        <v>1.038261175505803</v>
       </c>
       <c r="L10">
-        <v>1.03709969896374</v>
+        <v>1.036659539336077</v>
       </c>
       <c r="M10">
-        <v>1.045430694107276</v>
+        <v>1.045033804532502</v>
       </c>
       <c r="N10">
-        <v>1.01524299508328</v>
+        <v>1.016384946114979</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044578786887756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044264696399119</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022411517418423</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005563333183169</v>
+        <v>1.005127619325569</v>
       </c>
       <c r="D11">
-        <v>1.023882862650108</v>
+        <v>1.022925139936351</v>
       </c>
       <c r="E11">
-        <v>1.021624775906191</v>
+        <v>1.021332542773349</v>
       </c>
       <c r="F11">
-        <v>1.030556311919002</v>
+        <v>1.030280016727208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051388478462526</v>
+        <v>1.050922295618515</v>
       </c>
       <c r="J11">
-        <v>1.034706488556605</v>
+        <v>1.034288628271707</v>
       </c>
       <c r="K11">
-        <v>1.038368012926965</v>
+        <v>1.037427295493713</v>
       </c>
       <c r="L11">
-        <v>1.036150086922564</v>
+        <v>1.035863068092897</v>
       </c>
       <c r="M11">
-        <v>1.0449241049317</v>
+        <v>1.044652629514382</v>
       </c>
       <c r="N11">
-        <v>1.014970105647854</v>
+        <v>1.016438953877676</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.044611023991995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044396290291515</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.022291232385824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004948218985629</v>
+        <v>1.004550184830682</v>
       </c>
       <c r="D12">
-        <v>1.023508671916839</v>
+        <v>1.022593422697653</v>
       </c>
       <c r="E12">
-        <v>1.021380553422234</v>
+        <v>1.021112151597716</v>
       </c>
       <c r="F12">
-        <v>1.030587894164416</v>
+        <v>1.030333555980924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051313257726163</v>
+        <v>1.050873209856613</v>
       </c>
       <c r="J12">
-        <v>1.034544627700229</v>
+        <v>1.034163213313834</v>
       </c>
       <c r="K12">
-        <v>1.03819892897702</v>
+        <v>1.037300202322525</v>
       </c>
       <c r="L12">
-        <v>1.036109287745149</v>
+        <v>1.035845753551897</v>
       </c>
       <c r="M12">
-        <v>1.045151639340151</v>
+        <v>1.044901807343447</v>
       </c>
       <c r="N12">
-        <v>1.015006463758961</v>
+        <v>1.016565970672997</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045115258710773</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044917710715732</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022309853639209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005639139139808</v>
+        <v>1.005146403084709</v>
       </c>
       <c r="D13">
-        <v>1.024061390854886</v>
+        <v>1.023046881872499</v>
       </c>
       <c r="E13">
-        <v>1.022098109256989</v>
+        <v>1.021743286716828</v>
       </c>
       <c r="F13">
-        <v>1.031469382086255</v>
+        <v>1.031149152116878</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.05167403173536</v>
+        <v>1.051173698785478</v>
       </c>
       <c r="J13">
-        <v>1.03511498755258</v>
+        <v>1.034642713041652</v>
       </c>
       <c r="K13">
-        <v>1.038699151469195</v>
+        <v>1.037702872493379</v>
       </c>
       <c r="L13">
-        <v>1.036771191218084</v>
+        <v>1.036422771109345</v>
       </c>
       <c r="M13">
-        <v>1.045975435483975</v>
+        <v>1.045660848168561</v>
       </c>
       <c r="N13">
-        <v>1.015284318359521</v>
+        <v>1.016721504814532</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.04604163152479</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045792941761426</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.022435721874333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.006709274459537</v>
+        <v>1.006092439220907</v>
       </c>
       <c r="D14">
-        <v>1.024863847168307</v>
+        <v>1.023717799928634</v>
       </c>
       <c r="E14">
-        <v>1.023030097808244</v>
+        <v>1.022567293227996</v>
       </c>
       <c r="F14">
-        <v>1.032466088344167</v>
+        <v>1.032061751990688</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05212069537108</v>
+        <v>1.051540319008494</v>
       </c>
       <c r="J14">
-        <v>1.035840838364173</v>
+        <v>1.03524923897708</v>
       </c>
       <c r="K14">
-        <v>1.03934799669517</v>
+        <v>1.038222279400463</v>
       </c>
       <c r="L14">
-        <v>1.03754680493716</v>
+        <v>1.037092241251579</v>
       </c>
       <c r="M14">
-        <v>1.046816859370695</v>
+        <v>1.046419552901116</v>
       </c>
       <c r="N14">
-        <v>1.015585695000369</v>
+        <v>1.016843831392038</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.04687914706656</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046565107540667</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022571970868398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.007259208496041</v>
+        <v>1.006583899167052</v>
       </c>
       <c r="D15">
-        <v>1.025266154424732</v>
+        <v>1.024057556018656</v>
       </c>
       <c r="E15">
-        <v>1.023475569606542</v>
+        <v>1.02296319269718</v>
       </c>
       <c r="F15">
-        <v>1.032909538969427</v>
+        <v>1.032466110060207</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052328770149916</v>
+        <v>1.051710333460592</v>
       </c>
       <c r="J15">
-        <v>1.036183801941797</v>
+        <v>1.035535874453606</v>
       </c>
       <c r="K15">
-        <v>1.039657443945854</v>
+        <v>1.038470118967433</v>
       </c>
       <c r="L15">
-        <v>1.037898399765658</v>
+        <v>1.037395074579827</v>
       </c>
       <c r="M15">
-        <v>1.047167782715883</v>
+        <v>1.046732002803932</v>
       </c>
       <c r="N15">
-        <v>1.01571457061761</v>
+        <v>1.016885351946477</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047193865499186</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046849424718163</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022630799849935</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.010062734141709</v>
+        <v>1.009122923427982</v>
       </c>
       <c r="D16">
-        <v>1.027276705160199</v>
+        <v>1.025779137726947</v>
       </c>
       <c r="E16">
-        <v>1.025611655595267</v>
+        <v>1.024880815979251</v>
       </c>
       <c r="F16">
-        <v>1.03488853919839</v>
+        <v>1.03427043358438</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053298382357177</v>
+        <v>1.052504802253435</v>
       </c>
       <c r="J16">
-        <v>1.0378071920516</v>
+        <v>1.036903559671059</v>
       </c>
       <c r="K16">
-        <v>1.041135051931985</v>
+        <v>1.039662677035126</v>
       </c>
       <c r="L16">
-        <v>1.039498018238992</v>
+        <v>1.03877951270811</v>
       </c>
       <c r="M16">
-        <v>1.048620287446252</v>
+        <v>1.048012372597251</v>
       </c>
       <c r="N16">
-        <v>1.016258659788803</v>
+        <v>1.017035810958709</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048303421031808</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.047822910924906</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02288524470342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011653974298302</v>
+        <v>1.010586730960714</v>
       </c>
       <c r="D17">
-        <v>1.028400145100729</v>
+        <v>1.026757824330413</v>
       </c>
       <c r="E17">
-        <v>1.026763303814935</v>
+        <v>1.025929662341856</v>
       </c>
       <c r="F17">
-        <v>1.035880365925361</v>
+        <v>1.035178849075364</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.053805726062599</v>
+        <v>1.052925286664395</v>
       </c>
       <c r="J17">
-        <v>1.038671558330162</v>
+        <v>1.037644068973008</v>
       </c>
       <c r="K17">
-        <v>1.041927889911929</v>
+        <v>1.040312412399991</v>
       </c>
       <c r="L17">
-        <v>1.04031780214037</v>
+        <v>1.039497828394133</v>
       </c>
       <c r="M17">
-        <v>1.04928722938422</v>
+        <v>1.048596953928462</v>
       </c>
       <c r="N17">
-        <v>1.016517827740435</v>
+        <v>1.017116504366405</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048702317448906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.048156653700377</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023010328769367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012336208972984</v>
+        <v>1.011236010864506</v>
       </c>
       <c r="D18">
-        <v>1.028848400744528</v>
+        <v>1.027163531229319</v>
       </c>
       <c r="E18">
-        <v>1.027143748807745</v>
+        <v>1.026287545676643</v>
       </c>
       <c r="F18">
-        <v>1.036063032932597</v>
+        <v>1.035341219095337</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.053949864475239</v>
+        <v>1.053044513274991</v>
       </c>
       <c r="J18">
-        <v>1.03894113576115</v>
+        <v>1.037881153985294</v>
       </c>
       <c r="K18">
-        <v>1.042187083864544</v>
+        <v>1.040529299864503</v>
       </c>
       <c r="L18">
-        <v>1.040509836137116</v>
+        <v>1.03966744152222</v>
       </c>
       <c r="M18">
-        <v>1.049287010721979</v>
+        <v>1.04857658085789</v>
       </c>
       <c r="N18">
-        <v>1.01654500990086</v>
+        <v>1.017097553637155</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.048466047654337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.047904336194164</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023026641388798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.012186247852698</v>
+        <v>1.011131687123625</v>
       </c>
       <c r="D19">
-        <v>1.028677043696313</v>
+        <v>1.027037060695177</v>
       </c>
       <c r="E19">
-        <v>1.026813300120089</v>
+        <v>1.026001303888683</v>
       </c>
       <c r="F19">
-        <v>1.035497999534783</v>
+        <v>1.03480852330416</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.053761387467215</v>
+        <v>1.052883629878992</v>
       </c>
       <c r="J19">
-        <v>1.038664664281985</v>
+        <v>1.037648440492977</v>
       </c>
       <c r="K19">
-        <v>1.04195648509932</v>
+        <v>1.040342735362017</v>
       </c>
       <c r="L19">
-        <v>1.040122562406079</v>
+        <v>1.039323602008634</v>
       </c>
       <c r="M19">
-        <v>1.048669473142845</v>
+        <v>1.047990827772121</v>
       </c>
       <c r="N19">
-        <v>1.016363170894133</v>
+        <v>1.016967885901027</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.047654685246365</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.047117931852582</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022942078189913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.009727180906772</v>
+        <v>1.008932963665662</v>
       </c>
       <c r="D20">
-        <v>1.026791333801734</v>
+        <v>1.025435979804385</v>
       </c>
       <c r="E20">
-        <v>1.024529201094859</v>
+        <v>1.023944799710195</v>
       </c>
       <c r="F20">
-        <v>1.032910621629265</v>
+        <v>1.032398150275488</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052661830154285</v>
+        <v>1.051955366986755</v>
       </c>
       <c r="J20">
-        <v>1.036888217986815</v>
+        <v>1.036123825097979</v>
       </c>
       <c r="K20">
-        <v>1.040378899228466</v>
+        <v>1.03904584266046</v>
       </c>
       <c r="L20">
-        <v>1.038154024088284</v>
+        <v>1.037579282295149</v>
       </c>
       <c r="M20">
-        <v>1.046398451651938</v>
+        <v>1.045894274585996</v>
       </c>
       <c r="N20">
-        <v>1.015609913964821</v>
+        <v>1.016528809141382</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045334187375813</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.044935187052049</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022583023627617</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.004372715970916</v>
+        <v>1.004125950591439</v>
       </c>
       <c r="D21">
-        <v>1.022917505195936</v>
+        <v>1.022152540529699</v>
       </c>
       <c r="E21">
-        <v>1.020340680624906</v>
+        <v>1.020219875971033</v>
       </c>
       <c r="F21">
-        <v>1.028938575453678</v>
+        <v>1.028793696300956</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050741097232432</v>
+        <v>1.050393548585016</v>
       </c>
       <c r="J21">
-        <v>1.033688746582233</v>
+        <v>1.033452174667673</v>
       </c>
       <c r="K21">
-        <v>1.037477328272655</v>
+        <v>1.036726038479888</v>
       </c>
       <c r="L21">
-        <v>1.034946674538776</v>
+        <v>1.034828041867023</v>
       </c>
       <c r="M21">
-        <v>1.043391683133884</v>
+        <v>1.0432493527586</v>
       </c>
       <c r="N21">
-        <v>1.014483526849139</v>
+        <v>1.016223820827708</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.04291399316418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.042801348581991</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022071021226516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.000975094986889</v>
+        <v>1.001074988148834</v>
       </c>
       <c r="D22">
-        <v>1.02046930977084</v>
+        <v>1.020078066346332</v>
       </c>
       <c r="E22">
-        <v>1.017710205585275</v>
+        <v>1.01788300680666</v>
       </c>
       <c r="F22">
-        <v>1.026468862148222</v>
+        <v>1.026556851140331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049524592088383</v>
+        <v>1.049403529447682</v>
       </c>
       <c r="J22">
-        <v>1.031672549590864</v>
+        <v>1.031768071163933</v>
       </c>
       <c r="K22">
-        <v>1.035645887020294</v>
+        <v>1.035261997163097</v>
       </c>
       <c r="L22">
-        <v>1.032938798942508</v>
+        <v>1.033108331604207</v>
       </c>
       <c r="M22">
-        <v>1.041533590827044</v>
+        <v>1.041619952137599</v>
       </c>
       <c r="N22">
-        <v>1.013780003152381</v>
+        <v>1.016032093066846</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041443441098545</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.041511790192956</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021749694608104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.002783566653678</v>
+        <v>1.002682726814129</v>
       </c>
       <c r="D23">
-        <v>1.021771997504743</v>
+        <v>1.021168513549993</v>
       </c>
       <c r="E23">
-        <v>1.019109548895375</v>
+        <v>1.019111573293866</v>
       </c>
       <c r="F23">
-        <v>1.027782423741228</v>
+        <v>1.02773528705848</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050172987590313</v>
+        <v>1.049922315692504</v>
       </c>
       <c r="J23">
-        <v>1.03274593368593</v>
+        <v>1.032649374803617</v>
       </c>
       <c r="K23">
-        <v>1.036621023262029</v>
+        <v>1.036028586798149</v>
       </c>
       <c r="L23">
-        <v>1.034007442249537</v>
+        <v>1.034009429365053</v>
       </c>
       <c r="M23">
-        <v>1.042522341770823</v>
+        <v>1.04247605431068</v>
       </c>
       <c r="N23">
-        <v>1.014154568928755</v>
+        <v>1.016089077490615</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.042225969731326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.042189336396626</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021916010079507</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.009744638733774</v>
+        <v>1.008953055794318</v>
       </c>
       <c r="D24">
-        <v>1.026795165892028</v>
+        <v>1.025442011125074</v>
       </c>
       <c r="E24">
-        <v>1.02451280083345</v>
+        <v>1.023931384503173</v>
       </c>
       <c r="F24">
-        <v>1.032860081487734</v>
+        <v>1.032349643855138</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052649286422701</v>
+        <v>1.051944219512259</v>
       </c>
       <c r="J24">
-        <v>1.036872668987765</v>
+        <v>1.036110768280917</v>
       </c>
       <c r="K24">
-        <v>1.040367519487936</v>
+        <v>1.03903659720839</v>
       </c>
       <c r="L24">
-        <v>1.038122697708637</v>
+        <v>1.037550879684885</v>
       </c>
       <c r="M24">
-        <v>1.046333706497469</v>
+        <v>1.045831520701232</v>
       </c>
       <c r="N24">
-        <v>1.015594074536982</v>
+        <v>1.016514589368912</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045242395918385</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.044844952015993</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022575263906248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.017516672112793</v>
+        <v>1.016176669546409</v>
       </c>
       <c r="D25">
-        <v>1.032419388108643</v>
+        <v>1.030409463283621</v>
       </c>
       <c r="E25">
-        <v>1.030577962043423</v>
+        <v>1.029540476774616</v>
       </c>
       <c r="F25">
-        <v>1.03857087838606</v>
+        <v>1.037694805728784</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.05537257924192</v>
+        <v>1.054282199572865</v>
       </c>
       <c r="J25">
-        <v>1.041468576193239</v>
+        <v>1.040171624641184</v>
       </c>
       <c r="K25">
-        <v>1.044534448667838</v>
+        <v>1.042553364387046</v>
       </c>
       <c r="L25">
-        <v>1.04271943987558</v>
+        <v>1.041696891195025</v>
       </c>
       <c r="M25">
-        <v>1.050598547447503</v>
+        <v>1.049734840787224</v>
       </c>
       <c r="N25">
-        <v>1.017195869771323</v>
+        <v>1.01757869379017</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048617701827851</v>
+        <v>1.047934143187029</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023360743161092</v>
       </c>
     </row>
   </sheetData>
